--- a/app/excel/totaal_pool.xlsx
+++ b/app/excel/totaal_pool.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rolf/rails/rails6/soccer_bet/app/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C343DEF3-EF85-F44E-A4F6-3A7B7A401552}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{609776FF-F2FF-464E-9F50-0139870F0061}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="25180" windowHeight="14500" firstSheet="26" activeTab="37" xr2:uid="{55227644-637F-4171-8D31-C14E74BB5A41}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25180" windowHeight="14500" activeTab="2" xr2:uid="{55227644-637F-4171-8D31-C14E74BB5A41}"/>
   </bookViews>
   <sheets>
     <sheet name="Totaaloverzicht" sheetId="17" r:id="rId1"/>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11282" uniqueCount="336">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11294" uniqueCount="335">
   <si>
     <t>EK Pool 2020</t>
   </si>
@@ -571,18 +571,6 @@
     <t>Tjechie</t>
   </si>
   <si>
-    <t>Playoff D</t>
-  </si>
-  <si>
-    <t>Playoff C</t>
-  </si>
-  <si>
-    <t>Playoff B</t>
-  </si>
-  <si>
-    <t>Playoff A</t>
-  </si>
-  <si>
     <t>Benzema</t>
   </si>
   <si>
@@ -1070,6 +1058,15 @@
   </si>
   <si>
     <t>Ronaldo</t>
+  </si>
+  <si>
+    <t>ollie</t>
+  </si>
+  <si>
+    <t>no@mail.nl</t>
+  </si>
+  <si>
+    <t>esther</t>
   </si>
 </sst>
 </file>
@@ -1915,7 +1912,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB640E77-70F8-44DB-8692-8F6D9D9CBDB5}">
   <dimension ref="A1:B42"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
@@ -1932,7 +1929,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -1948,7 +1945,7 @@
         <v>65</v>
       </c>
       <c r="B7" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
@@ -1980,7 +1977,7 @@
         <v>69</v>
       </c>
       <c r="B11" s="112" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
@@ -1988,7 +1985,7 @@
         <v>70</v>
       </c>
       <c r="B12" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
@@ -1996,7 +1993,7 @@
         <v>71</v>
       </c>
       <c r="B13" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
@@ -2004,7 +2001,7 @@
         <v>72</v>
       </c>
       <c r="B14" s="112" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
@@ -2012,7 +2009,7 @@
         <v>73</v>
       </c>
       <c r="B15" s="112" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
@@ -2020,7 +2017,7 @@
         <v>74</v>
       </c>
       <c r="B16" s="112" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
@@ -2028,7 +2025,7 @@
         <v>75</v>
       </c>
       <c r="B17" s="112" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
@@ -2052,7 +2049,7 @@
         <v>78</v>
       </c>
       <c r="B20" s="112" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
@@ -2060,175 +2057,175 @@
         <v>79</v>
       </c>
       <c r="B21" s="112" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="B22" s="112" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="B23" s="112" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="B24" s="112" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="B25" s="113" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="B26" s="113" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="B27" s="113" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="B28" s="113" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="B29" s="113" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="B30" s="113" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="B31" s="113" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="B32" s="113" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="B33" s="113" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
+        <v>299</v>
+      </c>
+      <c r="B34" s="113" t="s">
         <v>303</v>
-      </c>
-      <c r="B34" s="113" t="s">
-        <v>307</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="B35" s="113" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="B36" s="113" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="B37" s="113" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="B38" s="113" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="B39" s="113" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="B40" s="113" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="B41" s="113" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="B42" s="113" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
     </row>
   </sheetData>
@@ -5875,8 +5872,8 @@
   </sheetPr>
   <dimension ref="A1:P63"/>
   <sheetViews>
-    <sheetView topLeftCell="B36" workbookViewId="0">
-      <selection activeCell="L47" sqref="L47"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5940,7 +5937,9 @@
       <c r="B4" s="80" t="s">
         <v>61</v>
       </c>
-      <c r="C4" s="84"/>
+      <c r="C4" s="41" t="s">
+        <v>333</v>
+      </c>
       <c r="D4" s="85"/>
       <c r="E4" s="86"/>
       <c r="F4" s="87"/>
@@ -7667,6 +7666,9 @@
       <formula1>WinnaarKwart</formula1>
     </dataValidation>
   </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="C4" r:id="rId1" xr:uid="{3957EC5F-C0F4-B642-8B9A-3F53ABB4BFC6}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="51" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -7680,7 +7682,7 @@
   <dimension ref="A1:P63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F53" sqref="F53"/>
+      <selection activeCell="C3" sqref="C3:C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7729,8 +7731,7 @@
       <c r="B3" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="C3" s="33"/>
-      <c r="D3" s="34" t="s">
+      <c r="C3" s="34" t="s">
         <v>144</v>
       </c>
       <c r="E3" s="35"/>
@@ -7744,8 +7745,7 @@
       <c r="B4" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="C4" s="33"/>
-      <c r="D4" s="111" t="s">
+      <c r="C4" s="111" t="s">
         <v>145</v>
       </c>
       <c r="E4" s="35"/>
@@ -9482,7 +9482,7 @@
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="D4" r:id="rId1" xr:uid="{07DA8654-DD84-4716-84C4-0D5253FCB56D}"/>
+    <hyperlink ref="C4" r:id="rId1" xr:uid="{07DA8654-DD84-4716-84C4-0D5253FCB56D}"/>
   </hyperlinks>
   <pageMargins left="0.11811023622047245" right="0.19685039370078741" top="0.15748031496062992" bottom="0.15748031496062992" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="55" orientation="portrait" r:id="rId2"/>
@@ -11308,8 +11308,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2069EF7E-167D-45F1-AB1E-BEA87C6982F1}">
   <dimension ref="A1:P63"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9:I54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11358,8 +11358,7 @@
       <c r="B3" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="C3" s="33"/>
-      <c r="D3" s="34" t="s">
+      <c r="C3" s="34" t="s">
         <v>166</v>
       </c>
       <c r="E3" s="35"/>
@@ -11373,8 +11372,7 @@
       <c r="B4" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="C4" s="33"/>
-      <c r="D4" s="111" t="s">
+      <c r="C4" s="111" t="s">
         <v>167</v>
       </c>
       <c r="E4" s="35"/>
@@ -12064,7 +12062,7 @@
         <v>5</v>
       </c>
       <c r="I26" s="16" t="s">
-        <v>169</v>
+        <v>88</v>
       </c>
       <c r="J26" s="39">
         <v>1</v>
@@ -12099,8 +12097,8 @@
       <c r="H27" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="I27" s="11" t="s">
-        <v>169</v>
+      <c r="I27" s="40" t="s">
+        <v>88</v>
       </c>
       <c r="J27" s="39">
         <v>1</v>
@@ -12168,8 +12166,8 @@
       <c r="F29" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="G29" s="15" t="s">
-        <v>169</v>
+      <c r="G29" s="40" t="s">
+        <v>88</v>
       </c>
       <c r="H29" s="11" t="s">
         <v>5</v>
@@ -12289,7 +12287,7 @@
         <v>26</v>
       </c>
       <c r="G33" s="15" t="s">
-        <v>170</v>
+        <v>89</v>
       </c>
       <c r="H33" s="11" t="s">
         <v>5</v>
@@ -12420,8 +12418,8 @@
       <c r="H36" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="I36" s="16" t="s">
-        <v>170</v>
+      <c r="I36" s="20" t="s">
+        <v>89</v>
       </c>
       <c r="J36" s="39">
         <v>1</v>
@@ -12498,8 +12496,8 @@
       <c r="H38" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="I38" s="16" t="s">
-        <v>170</v>
+      <c r="I38" s="20" t="s">
+        <v>89</v>
       </c>
       <c r="J38" s="39">
         <v>0</v>
@@ -12562,7 +12560,7 @@
         <v>5</v>
       </c>
       <c r="I41" s="11" t="s">
-        <v>171</v>
+        <v>90</v>
       </c>
       <c r="J41" s="39">
         <v>1</v>
@@ -12646,7 +12644,7 @@
         <v>5</v>
       </c>
       <c r="I43" s="11" t="s">
-        <v>171</v>
+        <v>90</v>
       </c>
       <c r="J43" s="39">
         <v>0</v>
@@ -12723,8 +12721,8 @@
       <c r="F45" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="G45" s="15" t="s">
-        <v>171</v>
+      <c r="G45" s="11" t="s">
+        <v>90</v>
       </c>
       <c r="H45" s="11" t="s">
         <v>5</v>
@@ -12865,7 +12863,7 @@
         <v>38</v>
       </c>
       <c r="G50" s="20" t="s">
-        <v>172</v>
+        <v>91</v>
       </c>
       <c r="H50" s="16" t="s">
         <v>5</v>
@@ -12943,7 +12941,7 @@
         <v>38</v>
       </c>
       <c r="G52" s="20" t="s">
-        <v>172</v>
+        <v>91</v>
       </c>
       <c r="H52" s="16" t="s">
         <v>5</v>
@@ -12985,7 +12983,7 @@
         <v>5</v>
       </c>
       <c r="I53" s="11" t="s">
-        <v>172</v>
+        <v>91</v>
       </c>
       <c r="J53" s="39">
         <v>1</v>
@@ -13063,7 +13061,7 @@
         <v>85</v>
       </c>
       <c r="K59" s="37" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="L59" s="37"/>
       <c r="M59" s="37"/>
@@ -13113,7 +13111,7 @@
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="D4" r:id="rId1" xr:uid="{3BE0D913-A759-43A0-9FA8-B135DA5F41BD}"/>
+    <hyperlink ref="C4" r:id="rId1" xr:uid="{3BE0D913-A759-43A0-9FA8-B135DA5F41BD}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -13123,8 +13121,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BBCBF83-5AE7-43AD-8F9D-80AF51AAE2CC}">
   <dimension ref="A1:P63"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="I54" sqref="G9:I54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -13174,7 +13172,7 @@
         <v>62</v>
       </c>
       <c r="C3" s="33" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="D3" s="34"/>
       <c r="E3" s="35"/>
@@ -13189,7 +13187,7 @@
         <v>61</v>
       </c>
       <c r="C4" s="41" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="D4" s="34"/>
       <c r="E4" s="35"/>
@@ -13780,7 +13778,7 @@
         <v>77</v>
       </c>
       <c r="P22" s="37" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.2">
@@ -14249,7 +14247,7 @@
         <v>71</v>
       </c>
       <c r="P36" s="37" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.2">
@@ -14876,7 +14874,7 @@
         <v>85</v>
       </c>
       <c r="K59" s="37" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="L59" s="37"/>
       <c r="M59" s="37"/>
@@ -14886,7 +14884,7 @@
         <v>86</v>
       </c>
       <c r="K61" s="37" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="L61" s="37"/>
       <c r="M61" s="37"/>
@@ -14936,8 +14934,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4ED4EFF5-ACAB-449E-A730-7719C4D32EE1}">
   <dimension ref="A1:P63"/>
   <sheetViews>
-    <sheetView topLeftCell="C43" workbookViewId="0">
-      <selection activeCell="G62" sqref="G62"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -14987,7 +14985,7 @@
         <v>62</v>
       </c>
       <c r="C3" s="33" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="D3" s="34"/>
       <c r="E3" s="35"/>
@@ -15001,7 +14999,9 @@
       <c r="B4" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="C4" s="41"/>
+      <c r="C4" s="41" t="s">
+        <v>333</v>
+      </c>
       <c r="D4" s="34"/>
       <c r="E4" s="35"/>
       <c r="F4" s="36"/>
@@ -15608,7 +15608,7 @@
         <v>78</v>
       </c>
       <c r="P23" s="37" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.2">
@@ -16687,7 +16687,7 @@
         <v>85</v>
       </c>
       <c r="K59" s="37" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="L59" s="37"/>
       <c r="M59" s="37"/>
@@ -16744,8 +16744,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3DEC3FD-70D4-4701-A7B8-5C3DC9E4319B}">
   <dimension ref="A1:P63"/>
   <sheetViews>
-    <sheetView topLeftCell="C4" workbookViewId="0">
-      <selection activeCell="J64" sqref="J64"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -16795,7 +16795,7 @@
         <v>62</v>
       </c>
       <c r="C3" s="33" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="D3" s="34"/>
       <c r="E3" s="35"/>
@@ -16809,7 +16809,9 @@
       <c r="B4" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="C4" s="41"/>
+      <c r="C4" s="41" t="s">
+        <v>333</v>
+      </c>
       <c r="D4" s="34"/>
       <c r="E4" s="35"/>
       <c r="F4" s="36"/>
@@ -17189,7 +17191,7 @@
         <v>72</v>
       </c>
       <c r="P17" s="37" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.2">
@@ -18276,7 +18278,7 @@
         <v>64</v>
       </c>
       <c r="P49" s="37" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.2">
@@ -18495,7 +18497,7 @@
         <v>85</v>
       </c>
       <c r="K59" s="37" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="L59" s="37"/>
       <c r="M59" s="37"/>
@@ -18603,7 +18605,7 @@
         <v>62</v>
       </c>
       <c r="C3" s="33" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="D3" s="34"/>
       <c r="E3" s="35"/>
@@ -18618,7 +18620,7 @@
         <v>61</v>
       </c>
       <c r="C4" s="41" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="D4" s="34"/>
       <c r="E4" s="35"/>
@@ -20307,7 +20309,7 @@
         <v>85</v>
       </c>
       <c r="K59" s="37" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="L59" s="37"/>
       <c r="M59" s="37"/>
@@ -20317,7 +20319,7 @@
         <v>86</v>
       </c>
       <c r="K61" s="37" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="L61" s="37"/>
       <c r="M61" s="37"/>
@@ -20367,7 +20369,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50087368-88E8-4B5B-A81D-54E63606056C}">
   <dimension ref="A1:P63"/>
   <sheetViews>
-    <sheetView topLeftCell="C16" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
@@ -22183,7 +22185,7 @@
   <dimension ref="A1:P63"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="N33" sqref="N33"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -22233,7 +22235,7 @@
         <v>62</v>
       </c>
       <c r="C3" s="33" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="D3" s="34"/>
       <c r="E3" s="35"/>
@@ -22247,7 +22249,9 @@
       <c r="B4" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="C4" s="41"/>
+      <c r="C4" s="41" t="s">
+        <v>333</v>
+      </c>
       <c r="D4" s="34"/>
       <c r="E4" s="35"/>
       <c r="F4" s="36"/>
@@ -23935,7 +23939,7 @@
         <v>85</v>
       </c>
       <c r="K59" s="37" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="L59" s="37"/>
       <c r="M59" s="37"/>
@@ -23945,7 +23949,7 @@
         <v>86</v>
       </c>
       <c r="K61" s="37" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="L61" s="37"/>
       <c r="M61" s="37"/>
@@ -24043,7 +24047,7 @@
         <v>62</v>
       </c>
       <c r="C3" s="33" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="D3" s="34"/>
       <c r="E3" s="35"/>
@@ -24058,7 +24062,7 @@
         <v>61</v>
       </c>
       <c r="C4" s="41" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="D4" s="34"/>
       <c r="E4" s="35"/>
@@ -25747,7 +25751,7 @@
         <v>85</v>
       </c>
       <c r="K59" s="37" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="L59" s="37"/>
       <c r="M59" s="37"/>
@@ -25757,7 +25761,7 @@
         <v>86</v>
       </c>
       <c r="K61" s="37" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="L61" s="37"/>
       <c r="M61" s="37"/>
@@ -25808,8 +25812,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{421795FF-79CD-4267-B2B2-20E81A2B7BE0}">
   <dimension ref="A1:P63"/>
   <sheetViews>
-    <sheetView topLeftCell="C38" workbookViewId="0">
-      <selection activeCell="L55" sqref="L55"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -25859,7 +25863,7 @@
         <v>62</v>
       </c>
       <c r="C3" s="33" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="D3" s="34"/>
       <c r="E3" s="35"/>
@@ -25873,7 +25877,9 @@
       <c r="B4" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="C4" s="41"/>
+      <c r="C4" s="41" t="s">
+        <v>333</v>
+      </c>
       <c r="D4" s="34"/>
       <c r="E4" s="35"/>
       <c r="F4" s="36"/>
@@ -27561,7 +27567,7 @@
         <v>85</v>
       </c>
       <c r="K59" s="37" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="L59" s="37"/>
       <c r="M59" s="37"/>
@@ -27571,7 +27577,7 @@
         <v>86</v>
       </c>
       <c r="K61" s="37" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="L61" s="37"/>
       <c r="M61" s="37"/>
@@ -27619,8 +27625,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43067721-3161-4153-9CEB-D66465D0EE59}">
   <dimension ref="A1:P63"/>
   <sheetViews>
-    <sheetView topLeftCell="B53" zoomScale="82" workbookViewId="0">
-      <selection activeCell="K63" sqref="K63"/>
+    <sheetView zoomScale="82" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3:C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -27669,9 +27675,8 @@
       <c r="B3" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="C3" s="33"/>
-      <c r="D3" s="34" t="s">
-        <v>209</v>
+      <c r="C3" s="34" t="s">
+        <v>205</v>
       </c>
       <c r="E3" s="35"/>
       <c r="F3" s="36"/>
@@ -27684,9 +27689,8 @@
       <c r="B4" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="C4" s="33"/>
-      <c r="D4" s="111" t="s">
-        <v>210</v>
+      <c r="C4" s="111" t="s">
+        <v>206</v>
       </c>
       <c r="E4" s="35"/>
       <c r="F4" s="36"/>
@@ -27945,7 +27949,7 @@
         <v>1</v>
       </c>
       <c r="O13" s="2" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="P13" s="37" t="s">
         <v>148</v>
@@ -27988,7 +27992,7 @@
         <v>69</v>
       </c>
       <c r="P14" s="37" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.2">
@@ -28024,7 +28028,7 @@
         <v>71</v>
       </c>
       <c r="P16" s="37" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.2">
@@ -28108,7 +28112,7 @@
         <v>73</v>
       </c>
       <c r="P18" s="37" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.2">
@@ -28234,7 +28238,7 @@
         <v>76</v>
       </c>
       <c r="P21" s="37" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.2">
@@ -28276,7 +28280,7 @@
         <v>77</v>
       </c>
       <c r="P22" s="37" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.2">
@@ -28312,7 +28316,7 @@
         <v>79</v>
       </c>
       <c r="P24" s="37" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.2">
@@ -28621,7 +28625,7 @@
         <v>68</v>
       </c>
       <c r="P33" s="37" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.2">
@@ -28663,7 +28667,7 @@
         <v>69</v>
       </c>
       <c r="P34" s="37" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.2">
@@ -29374,7 +29378,7 @@
         <v>85</v>
       </c>
       <c r="K59" s="37" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="L59" s="37"/>
       <c r="M59" s="37"/>
@@ -29384,7 +29388,7 @@
         <v>86</v>
       </c>
       <c r="K61" s="37" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="L61" s="37"/>
       <c r="M61" s="37"/>
@@ -29424,7 +29428,7 @@
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="D4" r:id="rId1" xr:uid="{286C3CAA-E1A8-4A64-B79D-80F1969B7261}"/>
+    <hyperlink ref="C4" r:id="rId1" xr:uid="{286C3CAA-E1A8-4A64-B79D-80F1969B7261}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -29485,7 +29489,7 @@
         <v>62</v>
       </c>
       <c r="C3" s="33" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="D3" s="34"/>
       <c r="E3" s="35"/>
@@ -29500,7 +29504,7 @@
         <v>61</v>
       </c>
       <c r="C4" s="41" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="D4" s="34"/>
       <c r="E4" s="35"/>
@@ -30049,7 +30053,7 @@
         <v>76</v>
       </c>
       <c r="P21" s="37" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.2">
@@ -31189,7 +31193,7 @@
         <v>85</v>
       </c>
       <c r="K59" s="37" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="L59" s="37"/>
       <c r="M59" s="37"/>
@@ -31250,7 +31254,7 @@
   <dimension ref="A1:P63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -31300,7 +31304,7 @@
         <v>62</v>
       </c>
       <c r="C3" s="33" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="D3" s="34"/>
       <c r="E3" s="35"/>
@@ -31315,7 +31319,7 @@
         <v>61</v>
       </c>
       <c r="C4" s="41" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="D4" s="34"/>
       <c r="E4" s="35"/>
@@ -31383,7 +31387,9 @@
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" s="3"/>
-      <c r="B9" s="11"/>
+      <c r="B9" s="11">
+        <v>1</v>
+      </c>
       <c r="C9" s="11" t="s">
         <v>3</v>
       </c>
@@ -31423,7 +31429,9 @@
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" s="3"/>
-      <c r="B10" s="16"/>
+      <c r="B10" s="16">
+        <v>2</v>
+      </c>
       <c r="C10" s="16" t="s">
         <v>7</v>
       </c>
@@ -33004,7 +33012,7 @@
         <v>85</v>
       </c>
       <c r="K59" s="37" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="L59" s="37"/>
       <c r="M59" s="37"/>
@@ -33014,7 +33022,7 @@
         <v>86</v>
       </c>
       <c r="K61" s="37" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="L61" s="37"/>
       <c r="M61" s="37"/>
@@ -33120,7 +33128,7 @@
         <v>62</v>
       </c>
       <c r="C3" s="33" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="D3" s="34"/>
       <c r="E3" s="35"/>
@@ -33135,7 +33143,7 @@
         <v>61</v>
       </c>
       <c r="C4" s="41" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="D4" s="34"/>
       <c r="E4" s="35"/>
@@ -33241,7 +33249,7 @@
         <v>41</v>
       </c>
       <c r="S9" s="114" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="T9" s="114">
         <v>7</v>
@@ -33297,7 +33305,7 @@
         <v>43</v>
       </c>
       <c r="S10" s="114" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="T10" s="114">
         <v>6</v>
@@ -33307,7 +33315,7 @@
         <v>38</v>
       </c>
       <c r="Y10" s="2" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="Z10" s="114" t="s">
         <v>46</v>
@@ -33353,7 +33361,7 @@
         <v>44</v>
       </c>
       <c r="S11" s="115" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="T11" s="115">
         <v>3</v>
@@ -33411,7 +33419,7 @@
         <v>46</v>
       </c>
       <c r="S12" s="2" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="T12" s="2">
         <v>1</v>
@@ -33423,7 +33431,7 @@
         <v>48</v>
       </c>
       <c r="Z12" s="114" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.2">
@@ -33620,7 +33628,7 @@
         <v>55</v>
       </c>
       <c r="S17" s="114" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="T17" s="114">
         <v>7</v>
@@ -33669,7 +33677,7 @@
         <v>54</v>
       </c>
       <c r="S18" s="114" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="T18" s="114">
         <v>5</v>
@@ -33718,7 +33726,7 @@
         <v>58</v>
       </c>
       <c r="S19" s="2" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="T19" s="2">
         <v>2</v>
@@ -33775,7 +33783,7 @@
         <v>57</v>
       </c>
       <c r="S20" s="2" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="T20" s="2">
         <v>1</v>
@@ -33835,7 +33843,7 @@
         <v>47</v>
       </c>
       <c r="Y21" s="2" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="Z21" s="114" t="s">
         <v>46</v>
@@ -33906,7 +33914,7 @@
         <v>78</v>
       </c>
       <c r="P23" s="37" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.2">
@@ -33973,7 +33981,7 @@
         <v>0</v>
       </c>
       <c r="S25" s="114" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="T25" s="114">
         <v>6</v>
@@ -34027,7 +34035,7 @@
         <v>0</v>
       </c>
       <c r="S26" s="114" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="T26" s="114">
         <v>6</v>
@@ -34075,7 +34083,7 @@
         <v>80</v>
       </c>
       <c r="S27" s="115" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="T27" s="115">
         <v>6</v>
@@ -34129,7 +34137,7 @@
         <v>2</v>
       </c>
       <c r="S28" s="2" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="T28" s="2">
         <v>0</v>
@@ -34297,7 +34305,7 @@
         <v>58</v>
       </c>
       <c r="S33" s="114" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="T33" s="114">
         <v>5</v>
@@ -34348,7 +34356,7 @@
         <v>54</v>
       </c>
       <c r="S34" s="114" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="T34" s="114">
         <v>5</v>
@@ -34399,7 +34407,7 @@
         <v>55</v>
       </c>
       <c r="S35" s="115" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="T35" s="115">
         <v>3</v>
@@ -34450,7 +34458,7 @@
         <v>57</v>
       </c>
       <c r="S36" s="2" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="T36" s="2">
         <v>2</v>
@@ -34597,7 +34605,7 @@
         <v>58</v>
       </c>
       <c r="S41" s="114" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="T41" s="114">
         <v>9</v>
@@ -34646,7 +34654,7 @@
         <v>44</v>
       </c>
       <c r="S42" s="114" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="T42" s="114">
         <v>4</v>
@@ -34695,7 +34703,7 @@
         <v>46</v>
       </c>
       <c r="S43" s="2" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="T43" s="2">
         <v>3</v>
@@ -34746,7 +34754,7 @@
         <v>57</v>
       </c>
       <c r="S44" s="2" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="T44" s="2">
         <v>1</v>
@@ -34893,7 +34901,7 @@
         <v>58</v>
       </c>
       <c r="S49" s="114" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="T49" s="114">
         <v>9</v>
@@ -34942,7 +34950,7 @@
         <v>46</v>
       </c>
       <c r="S50" s="114" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="T50" s="114">
         <v>6</v>
@@ -34985,7 +34993,7 @@
         <v>3</v>
       </c>
       <c r="S51" s="115" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="T51" s="115">
         <v>3</v>
@@ -35030,7 +35038,7 @@
         <v>4</v>
       </c>
       <c r="S52" s="2" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="T52" s="2">
         <v>0</v>
@@ -35138,7 +35146,7 @@
         <v>85</v>
       </c>
       <c r="K59" s="37" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="L59" s="37"/>
       <c r="M59" s="37"/>
@@ -35148,7 +35156,7 @@
         <v>86</v>
       </c>
       <c r="K61" s="37" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="L61" s="37"/>
       <c r="M61" s="37"/>
@@ -35199,7 +35207,7 @@
   <dimension ref="A1:P63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+      <selection activeCell="G9" sqref="G9:I54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -35249,7 +35257,7 @@
         <v>62</v>
       </c>
       <c r="C3" s="33" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="D3" s="34"/>
       <c r="E3" s="35"/>
@@ -35264,7 +35272,7 @@
         <v>61</v>
       </c>
       <c r="C4" s="41" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="D4" s="34"/>
       <c r="E4" s="35"/>
@@ -35367,7 +35375,7 @@
         <v>64</v>
       </c>
       <c r="P9" s="37" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
@@ -35407,7 +35415,7 @@
         <v>65</v>
       </c>
       <c r="P10" s="37" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
@@ -35447,7 +35455,7 @@
         <v>66</v>
       </c>
       <c r="P11" s="37" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
@@ -35527,7 +35535,7 @@
         <v>68</v>
       </c>
       <c r="P13" s="37" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
@@ -35584,7 +35592,7 @@
         <v>70</v>
       </c>
       <c r="P15" s="37" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.2">
@@ -35603,7 +35611,7 @@
         <v>71</v>
       </c>
       <c r="P16" s="37" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.2">
@@ -35645,7 +35653,7 @@
         <v>72</v>
       </c>
       <c r="P17" s="37" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.2">
@@ -35729,7 +35737,7 @@
         <v>74</v>
       </c>
       <c r="P19" s="37" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.2">
@@ -35771,7 +35779,7 @@
         <v>75</v>
       </c>
       <c r="P20" s="37" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.2">
@@ -35872,7 +35880,7 @@
         <v>78</v>
       </c>
       <c r="P23" s="37" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.2">
@@ -35954,7 +35962,7 @@
         <v>5</v>
       </c>
       <c r="I26" s="16" t="s">
-        <v>169</v>
+        <v>88</v>
       </c>
       <c r="J26" s="39">
         <v>1</v>
@@ -35989,8 +35997,8 @@
       <c r="H27" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="I27" s="11" t="s">
-        <v>169</v>
+      <c r="I27" s="40" t="s">
+        <v>88</v>
       </c>
       <c r="J27" s="39">
         <v>1</v>
@@ -36058,8 +36066,8 @@
       <c r="F29" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="G29" s="15" t="s">
-        <v>169</v>
+      <c r="G29" s="40" t="s">
+        <v>88</v>
       </c>
       <c r="H29" s="11" t="s">
         <v>5</v>
@@ -36122,7 +36130,7 @@
         <v>65</v>
       </c>
       <c r="P30" s="37" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.2">
@@ -36179,7 +36187,7 @@
         <v>26</v>
       </c>
       <c r="G33" s="15" t="s">
-        <v>170</v>
+        <v>89</v>
       </c>
       <c r="H33" s="11" t="s">
         <v>5</v>
@@ -36310,8 +36318,8 @@
       <c r="H36" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="I36" s="16" t="s">
-        <v>170</v>
+      <c r="I36" s="20" t="s">
+        <v>89</v>
       </c>
       <c r="J36" s="39">
         <v>2</v>
@@ -36326,7 +36334,7 @@
         <v>71</v>
       </c>
       <c r="P36" s="37" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.2">
@@ -36388,8 +36396,8 @@
       <c r="H38" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="I38" s="16" t="s">
-        <v>170</v>
+      <c r="I38" s="20" t="s">
+        <v>89</v>
       </c>
       <c r="J38" s="39">
         <v>0</v>
@@ -36452,7 +36460,7 @@
         <v>5</v>
       </c>
       <c r="I41" s="11" t="s">
-        <v>171</v>
+        <v>90</v>
       </c>
       <c r="J41" s="39">
         <v>1</v>
@@ -36536,7 +36544,7 @@
         <v>5</v>
       </c>
       <c r="I43" s="11" t="s">
-        <v>171</v>
+        <v>90</v>
       </c>
       <c r="J43" s="39">
         <v>2</v>
@@ -36613,8 +36621,8 @@
       <c r="F45" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="G45" s="15" t="s">
-        <v>171</v>
+      <c r="G45" s="11" t="s">
+        <v>90</v>
       </c>
       <c r="H45" s="11" t="s">
         <v>5</v>
@@ -36734,7 +36742,7 @@
         <v>64</v>
       </c>
       <c r="P49" s="37" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.2">
@@ -36755,7 +36763,7 @@
         <v>38</v>
       </c>
       <c r="G50" s="20" t="s">
-        <v>172</v>
+        <v>91</v>
       </c>
       <c r="H50" s="16" t="s">
         <v>5</v>
@@ -36833,7 +36841,7 @@
         <v>38</v>
       </c>
       <c r="G52" s="20" t="s">
-        <v>172</v>
+        <v>91</v>
       </c>
       <c r="H52" s="16" t="s">
         <v>5</v>
@@ -36875,7 +36883,7 @@
         <v>5</v>
       </c>
       <c r="I53" s="11" t="s">
-        <v>172</v>
+        <v>91</v>
       </c>
       <c r="J53" s="39">
         <v>2</v>
@@ -36940,7 +36948,7 @@
         <v>64</v>
       </c>
       <c r="P55" s="37" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.2">
@@ -37064,7 +37072,7 @@
         <v>62</v>
       </c>
       <c r="C3" s="33" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="D3" s="34"/>
       <c r="E3" s="35"/>
@@ -37079,7 +37087,7 @@
         <v>61</v>
       </c>
       <c r="C4" s="41" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="D4" s="34"/>
       <c r="E4" s="35"/>
@@ -37222,7 +37230,7 @@
         <v>65</v>
       </c>
       <c r="P10" s="37" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
@@ -37418,7 +37426,7 @@
         <v>71</v>
       </c>
       <c r="P16" s="37" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.2">
@@ -37502,7 +37510,7 @@
         <v>73</v>
       </c>
       <c r="P18" s="37" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.2">
@@ -37586,7 +37594,7 @@
         <v>75</v>
       </c>
       <c r="P20" s="37" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.2">
@@ -37628,7 +37636,7 @@
         <v>76</v>
       </c>
       <c r="P21" s="37" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.2">
@@ -38768,7 +38776,7 @@
         <v>85</v>
       </c>
       <c r="K59" s="37" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="L59" s="37"/>
       <c r="M59" s="37"/>
@@ -38778,7 +38786,7 @@
         <v>86</v>
       </c>
       <c r="K61" s="37" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="L61" s="37"/>
       <c r="M61" s="37"/>
@@ -38882,7 +38890,7 @@
         <v>62</v>
       </c>
       <c r="C3" s="33" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="D3" s="34"/>
       <c r="E3" s="35"/>
@@ -38897,7 +38905,7 @@
         <v>61</v>
       </c>
       <c r="C4" s="41" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="D4" s="34"/>
       <c r="E4" s="35"/>
@@ -40605,7 +40613,7 @@
         <v>86</v>
       </c>
       <c r="K61" s="37" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="L61" s="37"/>
       <c r="M61" s="37"/>
@@ -40656,8 +40664,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B768BB22-1B63-4095-B27F-C818BEBC935F}">
   <dimension ref="A1:P63"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -40707,7 +40715,7 @@
         <v>62</v>
       </c>
       <c r="C3" s="33" t="s">
-        <v>92</v>
+        <v>176</v>
       </c>
       <c r="D3" s="34"/>
       <c r="E3" s="35"/>
@@ -42522,7 +42530,7 @@
         <v>62</v>
       </c>
       <c r="C3" s="33" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="D3" s="34"/>
       <c r="E3" s="35"/>
@@ -42537,7 +42545,7 @@
         <v>61</v>
       </c>
       <c r="C4" s="41" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="D4" s="34"/>
       <c r="E4" s="35"/>
@@ -43128,7 +43136,7 @@
         <v>77</v>
       </c>
       <c r="P22" s="37" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.2">
@@ -43227,7 +43235,7 @@
         <v>5</v>
       </c>
       <c r="I26" s="16" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="J26" s="39">
         <v>1</v>
@@ -43263,7 +43271,7 @@
         <v>5</v>
       </c>
       <c r="I27" s="11" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="J27" s="39">
         <v>1</v>
@@ -43332,7 +43340,7 @@
         <v>23</v>
       </c>
       <c r="G29" s="15" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="H29" s="11" t="s">
         <v>5</v>
@@ -44338,7 +44346,7 @@
         <v>62</v>
       </c>
       <c r="C3" s="33" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="D3" s="34"/>
       <c r="E3" s="35"/>
@@ -44353,7 +44361,7 @@
         <v>61</v>
       </c>
       <c r="C4" s="41" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="D4" s="34"/>
       <c r="E4" s="35"/>
@@ -46042,7 +46050,7 @@
         <v>85</v>
       </c>
       <c r="K59" s="37" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="L59" s="37"/>
       <c r="M59" s="37"/>
@@ -46153,7 +46161,7 @@
         <v>62</v>
       </c>
       <c r="C3" s="33" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="D3" s="34"/>
       <c r="E3" s="35"/>
@@ -46168,7 +46176,7 @@
         <v>61</v>
       </c>
       <c r="C4" s="41" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="D4" s="34"/>
       <c r="E4" s="35"/>
@@ -46591,7 +46599,7 @@
         <v>73</v>
       </c>
       <c r="P18" s="37" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.2">
@@ -47867,7 +47875,7 @@
         <v>86</v>
       </c>
       <c r="K61" s="37" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="L61" s="37"/>
       <c r="M61" s="37"/>
@@ -47968,7 +47976,7 @@
         <v>62</v>
       </c>
       <c r="C3" s="33" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="D3" s="34"/>
       <c r="E3" s="35"/>
@@ -47983,7 +47991,7 @@
         <v>61</v>
       </c>
       <c r="C4" s="41" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="D4" s="34"/>
       <c r="E4" s="35"/>
@@ -49672,7 +49680,7 @@
         <v>85</v>
       </c>
       <c r="K59" s="37" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="L59" s="37"/>
       <c r="M59" s="37"/>
@@ -49682,7 +49690,7 @@
         <v>86</v>
       </c>
       <c r="K61" s="37" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="L61" s="37"/>
       <c r="M61" s="37"/>
@@ -49734,7 +49742,7 @@
   <dimension ref="A1:P63"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -49783,7 +49791,9 @@
       <c r="B3" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="C3" s="33"/>
+      <c r="C3" s="33" t="s">
+        <v>332</v>
+      </c>
       <c r="D3" s="34"/>
       <c r="E3" s="35"/>
       <c r="F3" s="36"/>
@@ -49796,7 +49806,9 @@
       <c r="B4" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="C4" s="33"/>
+      <c r="C4" s="41" t="s">
+        <v>333</v>
+      </c>
       <c r="D4" s="34"/>
       <c r="E4" s="35"/>
       <c r="F4" s="36"/>
@@ -49978,7 +49990,7 @@
         <v>66</v>
       </c>
       <c r="P11" s="37" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
@@ -50134,7 +50146,7 @@
         <v>71</v>
       </c>
       <c r="P16" s="37" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.2">
@@ -50689,7 +50701,7 @@
         <v>67</v>
       </c>
       <c r="P32" s="37" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.2">
@@ -50731,7 +50743,7 @@
         <v>68</v>
       </c>
       <c r="P33" s="37" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.2">
@@ -51531,6 +51543,9 @@
       <formula1>WinnaarKwart</formula1>
     </dataValidation>
   </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="C4" r:id="rId1" xr:uid="{11870046-C2A1-DC4F-A6D0-540E46CE7ADB}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -51540,8 +51555,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D0BB74B-62B0-41CD-A8B1-D24129177FC6}">
   <dimension ref="A1:P63"/>
   <sheetViews>
-    <sheetView topLeftCell="D42" workbookViewId="0">
-      <selection activeCell="K59" sqref="K59:K63"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -51590,7 +51605,9 @@
       <c r="B3" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="C3" s="33"/>
+      <c r="C3" s="33" t="s">
+        <v>334</v>
+      </c>
       <c r="D3" s="34"/>
       <c r="E3" s="35"/>
       <c r="F3" s="36"/>
@@ -51603,7 +51620,9 @@
       <c r="B4" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="C4" s="33"/>
+      <c r="C4" s="41" t="s">
+        <v>333</v>
+      </c>
       <c r="D4" s="34"/>
       <c r="E4" s="35"/>
       <c r="F4" s="36"/>
@@ -51865,7 +51884,7 @@
         <v>68</v>
       </c>
       <c r="P13" s="37" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
@@ -52193,7 +52212,7 @@
         <v>77</v>
       </c>
       <c r="P22" s="37" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.2">
@@ -53291,7 +53310,7 @@
         <v>85</v>
       </c>
       <c r="K59" s="37" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="M59" s="37"/>
     </row>
@@ -53300,7 +53319,7 @@
         <v>86</v>
       </c>
       <c r="K61" s="37" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="M61" s="37"/>
     </row>
@@ -53337,6 +53356,9 @@
       <formula1>WinnaarKwart</formula1>
     </dataValidation>
   </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="C4" r:id="rId1" xr:uid="{3DB8114E-E877-E54A-B80E-0660EEC54DAE}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -53396,7 +53418,7 @@
         <v>62</v>
       </c>
       <c r="C3" s="33" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="D3" s="34"/>
       <c r="E3" s="35"/>
@@ -53411,7 +53433,7 @@
         <v>61</v>
       </c>
       <c r="C4" s="41" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="D4" s="34"/>
       <c r="E4" s="35"/>
@@ -53674,7 +53696,7 @@
         <v>68</v>
       </c>
       <c r="P13" s="37" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
@@ -55109,7 +55131,7 @@
         <v>86</v>
       </c>
       <c r="K61" s="37" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="M61" s="37"/>
     </row>
@@ -55157,8 +55179,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93A40595-31A1-4AED-8DEE-108570E0737D}">
   <dimension ref="A1:P63"/>
   <sheetViews>
-    <sheetView topLeftCell="B47" workbookViewId="0">
-      <selection activeCell="K59" sqref="K59:K63"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -55208,7 +55230,7 @@
         <v>62</v>
       </c>
       <c r="C3" s="33" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="D3" s="34"/>
       <c r="E3" s="35"/>
@@ -55222,7 +55244,9 @@
       <c r="B4" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="C4" s="41"/>
+      <c r="C4" s="41" t="s">
+        <v>333</v>
+      </c>
       <c r="D4" s="34"/>
       <c r="E4" s="35"/>
       <c r="F4" s="36"/>
@@ -56550,7 +56574,7 @@
         <v>67</v>
       </c>
       <c r="P44" s="37" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.2">
@@ -56919,7 +56943,7 @@
         <v>86</v>
       </c>
       <c r="K61" s="37" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="M61" s="37"/>
     </row>
@@ -56964,8 +56988,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBD5E133-B5FA-4ADD-B5C9-06DBE33A4BFA}">
   <dimension ref="A1:P63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C39" workbookViewId="0">
-      <selection activeCell="K59" sqref="K59:K63"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -57015,7 +57039,7 @@
         <v>62</v>
       </c>
       <c r="C3" s="33" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="D3" s="34"/>
       <c r="E3" s="35"/>
@@ -57029,7 +57053,9 @@
       <c r="B4" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="C4" s="41"/>
+      <c r="C4" s="41" t="s">
+        <v>333</v>
+      </c>
       <c r="D4" s="34"/>
       <c r="E4" s="35"/>
       <c r="F4" s="36"/>
@@ -58726,7 +58752,7 @@
         <v>86</v>
       </c>
       <c r="K61" s="37" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="M61" s="37"/>
     </row>
@@ -62402,7 +62428,7 @@
   <dimension ref="A1:P63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -62466,7 +62492,9 @@
       <c r="B4" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="C4" s="33"/>
+      <c r="C4" s="41" t="s">
+        <v>333</v>
+      </c>
       <c r="D4" s="34"/>
       <c r="E4" s="35"/>
       <c r="F4" s="36"/>
@@ -64164,7 +64192,7 @@
         <v>86</v>
       </c>
       <c r="K61" s="37" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="L61" s="37"/>
       <c r="M61" s="37"/>
@@ -64203,6 +64231,9 @@
       <formula1>WinnaarKwart</formula1>
     </dataValidation>
   </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="C4" r:id="rId1" xr:uid="{E65AF2CC-7B6E-F74C-A662-E118D3E81AC3}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
